--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_203.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_203.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,634 +488,660 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1217948717948718</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:maj', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_103</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1426282051282051</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(15.6, 24.08)]</t>
+          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(7.4, 12.02)]</t>
+          <t>[('0:00:00.600000', '0:00:11.320000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:01:16.560000', '0:01:34.120000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2259615384615385</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
-        </is>
+          <t>jaah_66</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_44</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.04264705882352941</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min']]</t>
+          <t>[['Db', 'Ab:7', 'Db'], ['Ab', 'Ab', 'Eb:7']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(88.76, 98.3)]</t>
+          <t>[['D#/G', 'A#:7/F', 'D#/G'], ['A#', 'A#/F', 'F:7']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(13.12, 19.96)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:47.340000', '0:00:49.580000'), ('0:00:22.770000', '0:00:26.130000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:04:51.440000', '0:04:53.300000'), ('0:04:29.700000', '0:04:32.540000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1821946169772257</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_79</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1641025641025641</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'C:7', 'F:maj', 'F:maj/A']]</t>
+          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(72.82, 84.38)]</t>
+          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(19.86, 23.68)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:21.020000', '0:00:31.860000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:41.300000', '0:00:43.480000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1902173913043478</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'A:maj', 'D:maj']]</t>
-        </is>
+          <t>isophonics_79</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2491694352159468</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(27.771, 41.282)]</t>
+          <t>[['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(50.16, 52.82)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:07.284457', '0:00:20.438561')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:01:01.480000', '0:01:03.580000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_136</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.05966228893058161</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>isophonics_243</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_128</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2163742690058479</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A', 'D/5', 'A']]</t>
+          <t>[['A', 'B', 'E', 'C#:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(16.82, 23.18)]</t>
+          <t>[['F', 'G', 'C', 'A:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(0.939, 3.682)]</t>
+          <t>[('0:00:44.298946', '0:00:52.054411')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:00.414179', '0:00:09.717289')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1891625615763547</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['Ab', 'Db/5', 'Ab', 'Db/5', 'Ab', 'Db/5']]</t>
-        </is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7333333333333334</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'G', 'D', 'G']]</t>
+          <t>[['C#', 'F#/5', 'C#', 'F#/5']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(261.828, 278.542)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(5.20815, 16.933718)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
-        </is>
-      </c>
+          <t>[('0:00:31.469410', '0:02:07.006105')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:02:08.540000', '0:02:13.900000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_2</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_73</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1758474576271186</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['Bb:maj', 'G:min', 'C:min', 'F:maj', 'Bb:maj', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_164</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3642857142857143</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D', 'B:min', 'E:min', 'A', 'D', 'B:min']]</t>
+          <t>[['G:min', 'A:7/C#', 'D:maj'], ['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(55.96, 76.324)]</t>
+          <t>[['C:min', 'D:7', 'G'], ['Eb', 'Bb:7', 'Eb']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(6.949138, 14.600113)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:11.600000', '0:00:17.420000'), ('0:01:00.120000', '0:01:01.360000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:01:14.967000', '0:01:24.194000'), ('0:00:48.001000', '0:00:54.307000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.421195652173913</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>isophonics_164</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3642857142857143</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A:7/G', 'D:maj/F#', 'D:maj/A', 'A:7', 'D:maj/F#']]</t>
+          <t>[['C:min', 'D:7', 'G'], ['Eb', 'Bb:7', 'Eb']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(18.3, 21.94)]</t>
+          <t>[['G:min', 'A:7/C#', 'D:maj'], ['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(245.42, 263.44)]</t>
+          <t>[('0:01:14.967000', '0:01:24.194000'), ('0:00:48.001000', '0:00:54.307000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:11.600000', '0:00:17.420000'), ('0:01:00.120000', '0:01:01.360000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_53</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A/3', 'E:7', 'A'], ['A', 'E', 'A']]</t>
-        </is>
+          <t>isophonics_291</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4689655172413794</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj'], ['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>[['D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(58.557, 62.834), (4.605, 13.84)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(72.64, 79.22), (0.78, 24.86)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+          <t>[('0:00:05.208150', '0:00:12.997936')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:02:34.760000', '0:02:40.980000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_165</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.06719457013574662</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4211538461538462</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(16.82, 23.18)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(3.599751, 6.705328)]</t>
+          <t>[('0:01:06.920000', '0:01:24.540000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
+          <t>[('0:00:16.560000', '0:00:45.260000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_135</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_181</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1410105757931845</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_167</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['Bb', 'Eb', 'Bb', 'Eb']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(14.450219, 23.088042)]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(60.761383, 71.001383)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:00.580000', '0:00:10.180000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:24.520000', '0:00:47.240000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_101</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_99</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_96</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_141</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A:7', 'A:(3,5,b7,b9)/G', 'D:min/F']]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(4.7, 21.62)]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(153.42, 156.6)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:42.240000', '0:01:30.860000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:47.860000', '0:01:35.840000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_50</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_124</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2083333333333333</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_60</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_105</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F', 'Bb', 'F']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(37.936167, 42.951678)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(15.124263, 20.058503)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:06.300000', '0:01:59.400000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:09.140000', '0:01:50.260000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_148</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.5050505050505051</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_97</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_4</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(16.04, 21.0)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(8.08, 24.94)]</t>
+          <t>[('0:01:00.760000', '0:01:22.800000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:58.080000', '0:01:19.120000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_56</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_244</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.095829636202307</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C/7', 'A:min7', 'D:7']]</t>
-        </is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F', 'D:min7', 'G:7']]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(114.242199, 121.544875)]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(33.048777, 37.312789)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:01.360000', '0:00:24.160000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:00.700000', '0:00:21.420000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>jaah_88</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>jaah_33</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.03382930937675463</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A:min7', 'D:7', 'G:min7', 'C:7']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['Eb:min7', 'Ab:7', 'Db:min7', 'Gb:7']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(11.84, 16.56)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(1.21, 3.15)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
